--- a/eventos.xlsx
+++ b/eventos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIOGO.RODRIGUES\Desktop\temp_folha_redol\parametrizacao_folha_redol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIOGO.RODRIGUES\Desktop\redol\parametrizacao_folha_redol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F65D5B2-4732-4A80-AC4F-B3296F3E1BAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF164CF4-02DB-4559-A29D-BA00962B46CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0299A345-625C-4B15-92DC-7EAF95FE8A2C}"/>
   </bookViews>
@@ -528,8 +528,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/eventos.xlsx
+++ b/eventos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIOGO.RODRIGUES\Desktop\redol\parametrizacao_folha_redol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIOGO.RODRIGUES\Desktop\Temp - Folha Redol\parametrizacao_folha_redol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF164CF4-02DB-4559-A29D-BA00962B46CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DF14E8-9433-47A1-9C89-3D43810EA56D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0299A345-625C-4B15-92DC-7EAF95FE8A2C}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0299A345-625C-4B15-92DC-7EAF95FE8A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="planilha_eventos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>Evento</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>5433-0</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -526,295 +532,314 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090CEE21-1F07-4610-AD49-03132263E386}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>67</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>36</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>69</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>69</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>60</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>69</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>78</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>67</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>25</v>
       </c>
     </row>

--- a/eventos.xlsx
+++ b/eventos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIOGO.RODRIGUES\Desktop\Temp_Redol\parametrizacao_folha_redol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIOGO.RODRIGUES\Desktop\temp redol 24112022\parametrizacao_folha_redol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2737448-0E14-41FA-9C6D-F2217461095F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21AFAD7-7705-4FC1-A9E2-BFD21C0F14F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0299A345-625C-4B15-92DC-7EAF95FE8A2C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0299A345-625C-4B15-92DC-7EAF95FE8A2C}"/>
   </bookViews>
   <sheets>
     <sheet name="planilha_eventos" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1914" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="215">
   <si>
     <t>Evento</t>
   </si>
@@ -454,6 +454,234 @@
   </si>
   <si>
     <t>Placa ISD 5349</t>
+  </si>
+  <si>
+    <t>Abono anual 13 sal prop</t>
+  </si>
+  <si>
+    <t>5003-0</t>
+  </si>
+  <si>
+    <t>Alimentação</t>
+  </si>
+  <si>
+    <t>4010-0</t>
+  </si>
+  <si>
+    <t>5508-0</t>
+  </si>
+  <si>
+    <t>5684-0</t>
+  </si>
+  <si>
+    <t>4071-0</t>
+  </si>
+  <si>
+    <t>Exames Protege</t>
+  </si>
+  <si>
+    <t>1033-0</t>
+  </si>
+  <si>
+    <t>Adiant. Salário</t>
+  </si>
+  <si>
+    <t>1027-0</t>
+  </si>
+  <si>
+    <t>Emprest CEF</t>
+  </si>
+  <si>
+    <t>2072-0</t>
+  </si>
+  <si>
+    <t>Contribuição Confederativa</t>
+  </si>
+  <si>
+    <t>2045-0</t>
+  </si>
+  <si>
+    <t>Adiant. Férias</t>
+  </si>
+  <si>
+    <t>1029-0</t>
+  </si>
+  <si>
+    <t>IRRF</t>
+  </si>
+  <si>
+    <t>2049-0</t>
+  </si>
+  <si>
+    <t>Rescisão</t>
+  </si>
+  <si>
+    <t>2038-0</t>
+  </si>
+  <si>
+    <t>INSS Segurados</t>
+  </si>
+  <si>
+    <t>Aviso Prévio</t>
+  </si>
+  <si>
+    <t>Adto 13º Salário</t>
+  </si>
+  <si>
+    <t>1030-0</t>
+  </si>
+  <si>
+    <t>2039-0</t>
+  </si>
+  <si>
+    <t>Pensão Judicial</t>
+  </si>
+  <si>
+    <t>2041-0</t>
+  </si>
+  <si>
+    <t>FGTS</t>
+  </si>
+  <si>
+    <t>FGTS S/FÉRIAS</t>
+  </si>
+  <si>
+    <t>FGTS S/AVISO PREVIO</t>
+  </si>
+  <si>
+    <t>FGTS s/13º  SAL. PROPOR RESC</t>
+  </si>
+  <si>
+    <t>FGTS MULTA - DEPOSIT</t>
+  </si>
+  <si>
+    <t>FGTS GRFC</t>
+  </si>
+  <si>
+    <t>FGTS 13º SALÁRIO GRFC</t>
+  </si>
+  <si>
+    <t>FGTS S/FÉRIAS GRFC</t>
+  </si>
+  <si>
+    <t>FGTS S/13 SAL INDENIZ</t>
+  </si>
+  <si>
+    <t>2044-0</t>
+  </si>
+  <si>
+    <t>4008-0</t>
+  </si>
+  <si>
+    <t>4039-0</t>
+  </si>
+  <si>
+    <t>5010-0</t>
+  </si>
+  <si>
+    <t>5048-0</t>
+  </si>
+  <si>
+    <t>5086-0</t>
+  </si>
+  <si>
+    <t>5231-0</t>
+  </si>
+  <si>
+    <t>5257-0</t>
+  </si>
+  <si>
+    <t>5309-0</t>
+  </si>
+  <si>
+    <t>5506-0</t>
+  </si>
+  <si>
+    <t>5144-0</t>
+  </si>
+  <si>
+    <t>5483-0</t>
+  </si>
+  <si>
+    <t>4067-0</t>
+  </si>
+  <si>
+    <t>5361-0</t>
+  </si>
+  <si>
+    <t>5387-0</t>
+  </si>
+  <si>
+    <t>5638-0</t>
+  </si>
+  <si>
+    <t>5439-0</t>
+  </si>
+  <si>
+    <t>INSS 20%</t>
+  </si>
+  <si>
+    <t>INSS 5,8%</t>
+  </si>
+  <si>
+    <t>INSS 2,1%</t>
+  </si>
+  <si>
+    <t>4007-0</t>
+  </si>
+  <si>
+    <t>4038-0</t>
+  </si>
+  <si>
+    <t>5009-0</t>
+  </si>
+  <si>
+    <t>5047-0</t>
+  </si>
+  <si>
+    <t>5085-0</t>
+  </si>
+  <si>
+    <t>5230-0</t>
+  </si>
+  <si>
+    <t>5256-0</t>
+  </si>
+  <si>
+    <t>5308-0</t>
+  </si>
+  <si>
+    <t>5505-0</t>
+  </si>
+  <si>
+    <t>5143-0</t>
+  </si>
+  <si>
+    <t>5482-0</t>
+  </si>
+  <si>
+    <t>4070-0</t>
+  </si>
+  <si>
+    <t>5360-0</t>
+  </si>
+  <si>
+    <t>5386-0</t>
+  </si>
+  <si>
+    <t>5637-0</t>
+  </si>
+  <si>
+    <t>5438-0</t>
+  </si>
+  <si>
+    <t>PARTE EMPRESA</t>
+  </si>
+  <si>
+    <t>PARTE TERCEIROS</t>
+  </si>
+  <si>
+    <t>PARTE RAT + ACRÉS. FAP</t>
   </si>
 </sst>
 </file>
@@ -508,7 +736,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,6 +750,12 @@
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -839,18 +1073,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090CEE21-1F07-4610-AD49-03132263E386}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:V106"/>
+  <dimension ref="A1:V139"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C100" sqref="C100"/>
+      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -7617,6 +7851,2134 @@
         <v>24</v>
       </c>
     </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>888</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D107" s="3">
+        <v>101</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="H107" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="I107" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J107" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="L107" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="M107" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="O107" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="P107" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q107" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="R107" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="S107" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="T107" s="5"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="4"/>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>810</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D108" s="3">
+        <v>105</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H108" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I108" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J108" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L108" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M108" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O108" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P108" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q108" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="R108" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S108" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T108" s="5"/>
+      <c r="U108" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V108" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>856</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D109" s="3">
+        <v>105</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H109" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="I109" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="J109" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="L109" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="M109" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="N109" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="O109" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="P109" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q109" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="R109" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="S109" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="T109" s="5"/>
+      <c r="U109" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="V109" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>828</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D110" s="3">
+        <v>85</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="J110" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="K110" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L110" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="M110" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="N110" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O110" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="R110" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="S110" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="T110" s="5"/>
+      <c r="U110" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="V110" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>820</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D111" s="3">
+        <v>80</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="H111" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="I111" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="J111" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="K111" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="M111" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="N111" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="O111" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="P111" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q111" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="R111" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="S111" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="T111" s="5"/>
+      <c r="U111" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="V111" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>801</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D112" s="3">
+        <v>89</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="H112" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="K112" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="L112" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="M112" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O112" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="P112" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q112" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="R112" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="S112" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="T112" s="5"/>
+      <c r="U112" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="V112" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>864</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D113" s="3">
+        <v>77</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I113" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K113" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L113" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="M113" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="N113" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O113" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P113" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q113" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="R113" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="S113" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="T113" s="5"/>
+      <c r="U113" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="V113" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>867</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D114" s="3">
+        <v>77</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="H114" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I114" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="K114" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="L114" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="M114" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="N114" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="O114" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="P114" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q114" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="R114" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="S114" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="T114" s="5"/>
+      <c r="U114" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="V114" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>102</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D115" s="3">
+        <v>82</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H115" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I115" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J115" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K115" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L115" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="M115" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O115" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="P115" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q115" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="R115" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="S115" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="T115" s="5"/>
+      <c r="U115" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="V115" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>890</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D116" s="3">
+        <v>82</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H116" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="J116" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K116" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="L116" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="M116" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="N116" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="O116" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="P116" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q116" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="R116" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="S116" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="T116" s="5"/>
+      <c r="U116" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="V116" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>1920</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D117" s="3">
+        <v>88</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H117" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I117" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J117" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K117" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L117" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="M117" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N117" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="O117" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="P117" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q117" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="R117" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="S117" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="T117" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U117" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="V117" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>1922</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D118" s="3">
+        <v>88</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="G118" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H118" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="I118" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="J118" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K118" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="L118" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="M118" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="N118" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="O118" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="P118" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q118" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="R118" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="S118" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="T118" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U118" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="V118" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>1895</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D119" s="3">
+        <v>81</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G119" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H119" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="I119" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="J119" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="K119" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="L119" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="M119" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="N119" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O119" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="P119" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q119" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="R119" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="S119" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="T119" s="5"/>
+      <c r="U119" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="V119" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>1950</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D120" s="3">
+        <v>91</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G120" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H120" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I120" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J120" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K120" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L120" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M120" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N120" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O120" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="P120" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q120" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R120" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="S120" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T120" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U120" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V120" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>1951</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D121" s="3">
+        <v>91</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="P121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="S121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T121" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U121" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V121" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>1952</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D122" s="3">
+        <v>91</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="O122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="P122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="R122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="S122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T122" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="U122" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V122" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>478</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D123" s="3">
+        <v>70</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="G123" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="H123" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I123" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="J123" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="K123" s="5"/>
+      <c r="L123" s="5"/>
+      <c r="M123" s="5"/>
+      <c r="N123" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O123" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="P123" s="5"/>
+      <c r="Q123" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="R123" s="5"/>
+      <c r="S123" s="5"/>
+      <c r="T123" s="5"/>
+      <c r="U123" s="5"/>
+      <c r="V123" s="5"/>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>299</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D124" s="3">
+        <v>2006</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G124" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H124" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I124" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J124" s="5"/>
+      <c r="K124" s="5"/>
+      <c r="L124" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="M124" s="5"/>
+      <c r="N124" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O124" s="5"/>
+      <c r="P124" s="5"/>
+      <c r="Q124" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="R124" s="5"/>
+      <c r="S124" s="5"/>
+      <c r="T124" s="5"/>
+      <c r="U124" s="5"/>
+      <c r="V124" s="5"/>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>1830</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D125" s="3">
+        <v>90</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K125" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L125" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="M125" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="N125" s="5"/>
+      <c r="O125" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="P125" s="5"/>
+      <c r="Q125" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="R125" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S125" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="T125" s="5"/>
+      <c r="U125" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="V125" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>1832</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D126" s="3">
+        <v>90</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="K126" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="L126" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="M126" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="N126" s="5"/>
+      <c r="O126" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="P126" s="5"/>
+      <c r="Q126" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="R126" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="S126" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="T126" s="5"/>
+      <c r="U126" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="V126" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>1900</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D127" s="3">
+        <v>93</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G127" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H127" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I127" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J127" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K127" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L127" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="M127" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N127" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O127" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P127" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q127" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="R127" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="S127" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="V127" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>1902</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D128" s="3">
+        <v>103</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G128" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H128" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I128" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J128" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K128" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L128" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="M128" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N128" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O128" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P128" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q128" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="R128" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="S128" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T128" s="4"/>
+      <c r="U128" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="V128" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>1903</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D129" s="3">
+        <v>111</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G129" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H129" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I129" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J129" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K129" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L129" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="M129" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N129" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O129" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P129" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q129" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="R129" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="S129" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="V129" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>1904</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D130" s="3">
+        <v>111</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G130" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H130" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I130" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J130" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K130" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="M130" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N130" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O130" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P130" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q130" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="R130" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="S130" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="V130" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>1906</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D131" s="3">
+        <v>111</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G131" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H131" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I131" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J131" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K131" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L131" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="M131" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N131" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O131" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P131" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q131" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="R131" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="S131" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="V131" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>1908</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D132" s="3">
+        <v>111</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H132" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I132" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J132" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K132" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L132" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="M132" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N132" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O132" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P132" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q132" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="R132" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="S132" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T132" s="4"/>
+      <c r="U132" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="V132" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>1916</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C133" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D133" s="3">
+        <v>111</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G133" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H133" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I133" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J133" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K133" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L133" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="M133" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N133" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O133" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P133" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q133" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="R133" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="S133" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="V133" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>1917</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D134" s="3">
+        <v>111</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G134" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H134" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I134" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J134" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K134" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L134" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="M134" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N134" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O134" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P134" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q134" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="R134" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="S134" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T134" s="4"/>
+      <c r="U134" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="V134" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>1918</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C135" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D135" s="3">
+        <v>111</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G135" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H135" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I135" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J135" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K135" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L135" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="M135" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N135" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O135" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P135" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q135" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="R135" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="S135" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="V135" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>1953</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D136" s="3">
+        <v>111</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="H136" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="I136" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="J136" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="K136" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L136" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="M136" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="N136" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O136" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="P136" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q136" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="R136" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="S136" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="V136" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A137" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D137" s="3">
+        <v>94</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G137" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H137" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I137" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J137" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K137" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L137" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="M137" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N137" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="O137" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="P137" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q137" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="R137" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="S137" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="T137" s="4"/>
+      <c r="U137" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="V137" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A138" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C138" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D138" s="3">
+        <v>94</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G138" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H138" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I138" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J138" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K138" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L138" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="M138" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N138" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="O138" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="P138" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q138" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="R138" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="S138" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="T138" s="4"/>
+      <c r="U138" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="V138" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A139" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D139" s="3">
+        <v>94</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G139" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H139" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I139" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J139" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K139" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L139" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="M139" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N139" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="O139" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="P139" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q139" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="R139" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="S139" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="V139" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/eventos.xlsx
+++ b/eventos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIOGO.RODRIGUES\Desktop\temp redol 24112022\parametrizacao_folha_redol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DIOGO.RODRIGUES\Desktop\Temp Redol\parametrizacao_folha_redol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C21AFAD7-7705-4FC1-A9E2-BFD21C0F14F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EDE57C-2182-4CE7-A881-389D9260DEDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0299A345-625C-4B15-92DC-7EAF95FE8A2C}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2519" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2543" uniqueCount="219">
   <si>
     <t>Evento</t>
   </si>
@@ -682,6 +682,18 @@
   </si>
   <si>
     <t>PARTE RAT + ACRÉS. FAP</t>
+  </si>
+  <si>
+    <t>Vales</t>
+  </si>
+  <si>
+    <t>DIRETOR</t>
+  </si>
+  <si>
+    <t>INSS 20% PROLABORE</t>
+  </si>
+  <si>
+    <t>5515-0</t>
   </si>
 </sst>
 </file>
@@ -736,7 +748,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -756,6 +768,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1073,11 +1088,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090CEE21-1F07-4610-AD49-03132263E386}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:V139"/>
+  <dimension ref="A1:V141"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A128" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7853,135 +7868,135 @@
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
-        <v>888</v>
+        <v>800</v>
       </c>
       <c r="B107" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>139</v>
+        <v>215</v>
       </c>
       <c r="D107" s="3">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>140</v>
+        <v>16</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>140</v>
+        <v>17</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>140</v>
+        <v>18</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>140</v>
+        <v>19</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>140</v>
+        <v>20</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="O107" s="4" t="s">
-        <v>140</v>
+        <v>31</v>
       </c>
       <c r="P107" s="4" t="s">
-        <v>140</v>
+        <v>21</v>
       </c>
       <c r="Q107" s="4" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="R107" s="4" t="s">
-        <v>140</v>
+        <v>32</v>
       </c>
       <c r="S107" s="4" t="s">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="T107" s="5"/>
-      <c r="U107" s="4"/>
-      <c r="V107" s="4"/>
+      <c r="U107" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="V107" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
-        <v>810</v>
+        <v>888</v>
       </c>
       <c r="B108" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D108" s="3">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="N108" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="O108" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="P108" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="Q108" s="4" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="R108" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="S108" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="T108" s="5"/>
-      <c r="U108" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="V108" s="4" t="s">
-        <v>143</v>
-      </c>
+      <c r="U108" s="4"/>
+      <c r="V108" s="4"/>
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
-        <v>856</v>
+        <v>810</v>
       </c>
       <c r="B109" s="3" t="s">
         <v>131</v>
@@ -8047,265 +8062,265 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
-        <v>828</v>
+        <v>856</v>
       </c>
       <c r="B110" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D110" s="3">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E110" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
+        <v>142</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>143</v>
+      </c>
       <c r="I110" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J110" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="N110" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="O110" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="P110" s="5"/>
+        <v>143</v>
+      </c>
+      <c r="P110" s="4" t="s">
+        <v>144</v>
+      </c>
       <c r="Q110" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R110" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="S110" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="T110" s="5"/>
       <c r="U110" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="V110" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
-        <v>820</v>
+        <v>828</v>
       </c>
       <c r="B111" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D111" s="3">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="H111" s="4" t="s">
-        <v>149</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
       <c r="I111" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J111" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N111" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O111" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="P111" s="4" t="s">
-        <v>149</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="P111" s="5"/>
       <c r="Q111" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="R111" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="S111" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="T111" s="5"/>
       <c r="U111" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="V111" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
-        <v>801</v>
+        <v>820</v>
       </c>
       <c r="B112" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D112" s="3">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E112" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M112" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="N112" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O112" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="P112" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Q112" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="R112" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="S112" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="T112" s="5"/>
       <c r="U112" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="V112" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
-        <v>864</v>
+        <v>801</v>
       </c>
       <c r="B113" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D113" s="3">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="E113" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="O113" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="P113" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="Q113" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R113" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="S113" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="T113" s="5"/>
       <c r="U113" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="V113" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="B114" s="3" t="s">
         <v>131</v>
@@ -8371,73 +8386,73 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
-        <v>102</v>
+        <v>867</v>
       </c>
       <c r="B115" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D115" s="3">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="J115" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="L115" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M115" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="O115" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="P115" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Q115" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="R115" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S115" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="T115" s="5"/>
       <c r="U115" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="V115" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
-        <v>890</v>
+        <v>102</v>
       </c>
       <c r="B116" s="3" t="s">
         <v>131</v>
@@ -8503,75 +8518,73 @@
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
-        <v>1920</v>
+        <v>890</v>
       </c>
       <c r="B117" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D117" s="3">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="G117" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="J117" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L117" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M117" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="O117" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="P117" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q117" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R117" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S117" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="T117" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="T117" s="5"/>
       <c r="U117" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="V117" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="B118" s="3" t="s">
         <v>131</v>
@@ -8628,7 +8641,7 @@
         <v>157</v>
       </c>
       <c r="T118" s="4" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="U118" s="4" t="s">
         <v>157</v>
@@ -8639,141 +8652,141 @@
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
-        <v>1895</v>
+        <v>1922</v>
       </c>
       <c r="B119" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D119" s="3">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E119" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G119" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="J119" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="L119" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M119" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="N119" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O119" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P119" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="Q119" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R119" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="S119" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="T119" s="5"/>
+        <v>157</v>
+      </c>
+      <c r="T119" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="U119" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="V119" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
-        <v>1950</v>
+        <v>1895</v>
       </c>
       <c r="B120" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D120" s="3">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="G120" s="4" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="N120" s="4" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="O120" s="4" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="P120" s="4" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="Q120" s="4" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="R120" s="4" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="S120" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="T120" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="T120" s="5"/>
       <c r="U120" s="4" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="V120" s="4" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B121" s="3" t="s">
         <v>131</v>
@@ -8830,7 +8843,7 @@
         <v>108</v>
       </c>
       <c r="T121" s="4" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="U121" s="4" t="s">
         <v>108</v>
@@ -8841,7 +8854,7 @@
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B122" s="3" t="s">
         <v>131</v>
@@ -8898,7 +8911,7 @@
         <v>108</v>
       </c>
       <c r="T122" s="4" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="U122" s="4" t="s">
         <v>108</v>
@@ -8909,95 +8922,115 @@
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
-        <v>478</v>
+        <v>1952</v>
       </c>
       <c r="B123" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D123" s="3">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="E123" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G123" s="4" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="J123" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="K123" s="5"/>
-      <c r="L123" s="5"/>
-      <c r="M123" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="K123" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="M123" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="N123" s="4" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="O123" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="P123" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="P123" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="Q123" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="R123" s="5"/>
-      <c r="S123" s="5"/>
-      <c r="T123" s="5"/>
-      <c r="U123" s="5"/>
-      <c r="V123" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="R123" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="S123" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="T123" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="U123" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="V123" s="4" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
-        <v>299</v>
+        <v>478</v>
       </c>
       <c r="B124" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D124" s="3">
-        <v>2006</v>
+        <v>70</v>
       </c>
       <c r="E124" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="G124" s="4" t="s">
-        <v>163</v>
+        <v>122</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J124" s="5"/>
+        <v>124</v>
+      </c>
+      <c r="J124" s="4" t="s">
+        <v>125</v>
+      </c>
       <c r="K124" s="5"/>
-      <c r="L124" s="4" t="s">
-        <v>164</v>
-      </c>
+      <c r="L124" s="5"/>
       <c r="M124" s="5"/>
       <c r="N124" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="O124" s="5"/>
+        <v>127</v>
+      </c>
+      <c r="O124" s="4" t="s">
+        <v>128</v>
+      </c>
       <c r="P124" s="5"/>
       <c r="Q124" s="4" t="s">
-        <v>163</v>
+        <v>129</v>
       </c>
       <c r="R124" s="5"/>
       <c r="S124" s="5"/>
@@ -9007,65 +9040,55 @@
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
-        <v>1830</v>
+        <v>299</v>
       </c>
       <c r="B125" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D125" s="3">
-        <v>90</v>
+        <v>2006</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G125" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="K125" s="4" t="s">
-        <v>166</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="H125" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="I125" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J125" s="5"/>
+      <c r="K125" s="5"/>
       <c r="L125" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="M125" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="N125" s="5"/>
-      <c r="O125" s="4" t="s">
-        <v>166</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="M125" s="5"/>
+      <c r="N125" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="O125" s="5"/>
       <c r="P125" s="5"/>
       <c r="Q125" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="R125" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="S125" s="4" t="s">
-        <v>166</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="R125" s="5"/>
+      <c r="S125" s="5"/>
       <c r="T125" s="5"/>
-      <c r="U125" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="V125" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="U125" s="5"/>
+      <c r="V125" s="5"/>
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="B126" s="3" t="s">
         <v>131</v>
@@ -9123,82 +9146,74 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
-        <v>1900</v>
+        <v>1832</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>167</v>
+        <v>131</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="D127" s="3">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G127" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="H127" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="I127" s="4" t="s">
-        <v>180</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
       <c r="J127" s="4" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="K127" s="4" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="L127" s="4" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="M127" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="N127" s="4" t="s">
-        <v>185</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="N127" s="5"/>
       <c r="O127" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="P127" s="4" t="s">
-        <v>187</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="P127" s="5"/>
       <c r="Q127" s="4" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="R127" s="4" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="S127" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="T127" s="4"/>
+        <v>166</v>
+      </c>
+      <c r="T127" s="5"/>
       <c r="U127" s="4" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="V127" s="4" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="B128" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D128" s="3">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>176</v>
@@ -9255,16 +9270,16 @@
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
-        <v>1903</v>
+        <v>1902</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D129" s="3">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="E129" s="3" t="s">
         <v>176</v>
@@ -9321,13 +9336,13 @@
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="B130" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C130" s="7" t="s">
-        <v>170</v>
+      <c r="C130" s="6" t="s">
+        <v>169</v>
       </c>
       <c r="D130" s="3">
         <v>111</v>
@@ -9387,7 +9402,7 @@
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="B131" s="3" t="s">
         <v>27</v>
@@ -9453,13 +9468,13 @@
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C132" s="6" t="s">
-        <v>171</v>
+      <c r="C132" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="D132" s="3">
         <v>111</v>
@@ -9519,13 +9534,13 @@
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
-        <v>1916</v>
+        <v>1908</v>
       </c>
       <c r="B133" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D133" s="3">
         <v>111</v>
@@ -9585,13 +9600,13 @@
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
-        <v>1917</v>
+        <v>1916</v>
       </c>
       <c r="B134" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D134" s="3">
         <v>111</v>
@@ -9651,13 +9666,13 @@
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
-        <v>1918</v>
+        <v>1917</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D135" s="3">
         <v>111</v>
@@ -9717,13 +9732,13 @@
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
-        <v>1953</v>
+        <v>1918</v>
       </c>
       <c r="B136" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D136" s="3">
         <v>111</v>
@@ -9782,80 +9797,80 @@
       </c>
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
-        <v>212</v>
+      <c r="A137" s="3">
+        <v>1953</v>
       </c>
       <c r="B137" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="D137" s="3">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="G137" s="4" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="M137" s="4" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="N137" s="4" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="O137" s="4" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="P137" s="4" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="Q137" s="4" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="R137" s="4" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="S137" s="4" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="T137" s="4"/>
       <c r="U137" s="4" t="s">
-        <v>210</v>
+        <v>191</v>
       </c>
       <c r="V137" s="4" t="s">
-        <v>211</v>
+        <v>192</v>
       </c>
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B138" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D138" s="3">
         <v>94</v>
@@ -9915,13 +9930,13 @@
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B139" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D139" s="3">
         <v>94</v>
@@ -9977,6 +9992,92 @@
       </c>
       <c r="V139" s="4" t="s">
         <v>211</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A140" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D140" s="3">
+        <v>94</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="G140" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="H140" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="I140" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J140" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="K140" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="L140" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="M140" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="N140" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="O140" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="P140" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q140" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="R140" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="S140" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="T140" s="4"/>
+      <c r="U140" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="V140" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A141" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D141" s="3">
+        <v>94</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="T141" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
